--- a/Resources/corestack_ai_prompts.xlsx
+++ b/Resources/corestack_ai_prompts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\CS Journey\Projectss\Project\Core_Stack\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\CS Journey\Projectss\Project\Core_Stack\CoreStack\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301BF403-8205-495E-9148-540E2DEC363A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB1BFBE-0333-487C-806D-C28A9253F73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8424" yWindow="6588" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENG" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>Prompt</t>
   </si>
@@ -70,9 +70,6 @@
     <t>a change raster of cropland to built-up, and total degraded area in hectares</t>
   </si>
   <si>
-    <t xml:space="preserve">Which tehsils in Karnataka among the ones available on Core Stack have experienced droughts? </t>
-  </si>
-  <si>
     <t>Drought Frequency Vector</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>Drought Frequency Vector, Cropping Intensity Raster</t>
-  </si>
-  <si>
-    <t>for all MWs in Pangi which had experienced drought (KYL shows regions with average one or two weeks of dry spells in Pangi), compute cropping intensity average in drought and non drought years, rank based on highest difference</t>
   </si>
   <si>
     <t>microwatershed names with highest sensitivity</t>
@@ -293,6 +287,15 @@
   </si>
   <si>
     <t>For my microwatershed 18_16157, can you find out regions with similar phenological cycles during the years: 2019 to 2020, and show per month, regions in same phenological stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which villages in Navalgund, Dharwad Karnataka among the ones available on Core Stack have experienced droughts? </t>
+  </si>
+  <si>
+    <t>Need to check</t>
+  </si>
+  <si>
+    <t>for all MWs in Navalgund which had experienced drought (KYL shows regions with average one or two weeks of dry spells in Navalgund), compute cropping intensity average in drought and non drought years, rank based on highest difference</t>
   </si>
 </sst>
 </file>
@@ -759,7 +762,7 @@
     </row>
     <row r="2" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>6</v>
@@ -768,13 +771,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -800,7 +803,7 @@
     </row>
     <row r="3" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -809,13 +812,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -850,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -882,7 +885,7 @@
     </row>
     <row r="5" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
@@ -891,15 +894,17 @@
         <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -923,22 +928,22 @@
     </row>
     <row r="6" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -964,22 +969,22 @@
     </row>
     <row r="7" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1005,22 +1010,22 @@
     </row>
     <row r="8" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1046,22 +1051,22 @@
     </row>
     <row r="9" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1087,22 +1092,22 @@
     </row>
     <row r="10" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -1128,22 +1133,22 @@
     </row>
     <row r="11" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1169,22 +1174,22 @@
     </row>
     <row r="12" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1210,22 +1215,22 @@
     </row>
     <row r="13" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -1251,22 +1256,22 @@
     </row>
     <row r="14" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1292,19 +1297,19 @@
     </row>
     <row r="15" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1331,22 +1336,22 @@
     </row>
     <row r="16" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1372,19 +1377,19 @@
     </row>
     <row r="17" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1411,19 +1416,19 @@
     </row>
     <row r="18" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1450,20 +1455,20 @@
     </row>
     <row r="19" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1489,20 +1494,20 @@
     </row>
     <row r="20" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1528,13 +1533,13 @@
     </row>
     <row r="21" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>

--- a/Resources/corestack_ai_prompts.xlsx
+++ b/Resources/corestack_ai_prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\CS Journey\Projectss\Project\Core_Stack\CoreStack\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB1BFBE-0333-487C-806D-C28A9253F73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4B664F-5124-45F5-9A2D-F00227FA6E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8424" yWindow="6588" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENG" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>for all MWs, compute use terrain, drought, and LULC already computed on core stack, and use propensity score matching to find similar MWs to it</t>
-  </si>
-  <si>
-    <t>From top-K earlier identified microwatersheds, can you rank them based on their cropping intensity and surface water availability. You can build a weighted score of surface water availability as 3 times perennial water area + 2 times winter water area + 1 time monsoon water area. Similarly, you can build a weighted score of cropping intensity as 3 times triple cropping area + 2 times double cropping area + 1 time single cropping area in kharif or non-kharif.</t>
   </si>
   <si>
     <t>Past Output, LULC, Cropping Intensity raster</t>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t>for all MWs in Navalgund which had experienced drought (KYL shows regions with average one or two weeks of dry spells in Navalgund), compute cropping intensity average in drought and non drought years, rank based on highest difference</t>
+  </si>
+  <si>
+    <t>From the top-K earlier identified drought-sensitive and surface-water-sensitive microwatersheds in Navalgund, Dharwad, Karnataka, rank them based on their cropping intensity and surface water availability. Use weighted score: cropping_score = 3*triple_crop + 2*double_crop + 1*(single_kharif + single_non_kharif). Water score = 3*perennial_water + 2*winter_water + 1*monsoon_water. Read past exports from ./exports/ to get the MWS UIDs.</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   </sheetPr>
   <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -762,7 +762,7 @@
     </row>
     <row r="2" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>6</v>
@@ -771,13 +771,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -803,7 +803,7 @@
     </row>
     <row r="3" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -812,13 +812,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -853,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -885,7 +885,7 @@
     </row>
     <row r="5" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
@@ -894,16 +894,16 @@
         <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -928,7 +928,7 @@
     </row>
     <row r="6" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>6</v>
@@ -943,7 +943,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -969,7 +969,7 @@
     </row>
     <row r="7" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>19</v>
@@ -978,13 +978,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="8" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>19</v>
@@ -1025,7 +1025,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="9" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>19</v>
@@ -1066,7 +1066,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="10" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>19</v>
@@ -1107,7 +1107,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -1133,22 +1133,22 @@
     </row>
     <row r="11" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1174,22 +1174,22 @@
     </row>
     <row r="12" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1215,22 +1215,22 @@
     </row>
     <row r="13" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -1256,22 +1256,22 @@
     </row>
     <row r="14" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1297,19 +1297,19 @@
     </row>
     <row r="15" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1336,22 +1336,22 @@
     </row>
     <row r="16" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1377,19 +1377,19 @@
     </row>
     <row r="17" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1416,19 +1416,19 @@
     </row>
     <row r="18" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1455,20 +1455,20 @@
     </row>
     <row r="19" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1494,20 +1494,20 @@
     </row>
     <row r="20" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1533,13 +1533,13 @@
     </row>
     <row r="21" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -30103,8 +30103,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>